--- a/data/SIUP/SIUP2020/SIUP2020.xlsx
+++ b/data/SIUP/SIUP2020/SIUP2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Documents\Tesis_de_Licenciatura\Extortion_Peru\data\SIUP\SIUP2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C3E457-9C1B-42EF-BD4D-9C60C5A673DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5257E148-A685-4C61-95F9-745603E662A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5128,12 +5128,6 @@
     <t>CHINCHA ALTA</t>
   </si>
   <si>
-    <t>CPNP NAZCA</t>
-  </si>
-  <si>
-    <t>NAZCA</t>
-  </si>
-  <si>
     <t>CPNP S. J. DE MARCONA</t>
   </si>
   <si>
@@ -6938,6 +6932,12 @@
   </si>
   <si>
     <t>JOSE MARIA ARGUEDAS</t>
+  </si>
+  <si>
+    <t>NASCA</t>
+  </si>
+  <si>
+    <t>CPNP NASCA</t>
   </si>
 </sst>
 </file>
@@ -7327,8 +7327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1317"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="B373" sqref="B373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7348,7 +7348,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -7360,10 +7360,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -7378,10 +7378,10 @@
         <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -7574,16 +7574,16 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B6" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="C6" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="D6" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="E6">
         <v>85</v>
@@ -8003,10 +8003,10 @@
         <v>464</v>
       </c>
       <c r="C15" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="D15" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="E15">
         <v>33</v>
@@ -8053,7 +8053,7 @@
         <v>1021</v>
       </c>
       <c r="D16" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="E16">
         <v>42</v>
@@ -8238,10 +8238,10 @@
         <v>782</v>
       </c>
       <c r="C20" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="D20" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="E20">
         <v>22</v>
@@ -8420,16 +8420,16 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="B24" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C24" t="s">
         <v>1848</v>
       </c>
-      <c r="C24" t="s">
-        <v>1850</v>
-      </c>
       <c r="D24" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="E24">
         <v>56</v>
@@ -8990,10 +8990,10 @@
         <v>464</v>
       </c>
       <c r="C36" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="D36" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="E36">
         <v>117</v>
@@ -9081,13 +9081,13 @@
         <v>464</v>
       </c>
       <c r="B38" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="C38" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="D38" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="E38">
         <v>55</v>
@@ -9125,16 +9125,16 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B39" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C39" t="s">
         <v>2122</v>
       </c>
-      <c r="C39" t="s">
-        <v>2124</v>
-      </c>
       <c r="D39" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="E39">
         <v>15</v>
@@ -9501,16 +9501,16 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B47" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="C47" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="D47" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="E47">
         <v>67</v>
@@ -9642,16 +9642,16 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B50" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="C50" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="D50" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="E50">
         <v>13</v>
@@ -9736,16 +9736,16 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="B52" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="C52" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="D52" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="E52">
         <v>80</v>
@@ -10018,16 +10018,16 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B58" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="C58" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="D58" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="E58">
         <v>19</v>
@@ -10538,7 +10538,7 @@
         <v>467</v>
       </c>
       <c r="B69" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="C69" t="s">
         <v>649</v>
@@ -10817,16 +10817,16 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B75" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C75" t="s">
         <v>2165</v>
       </c>
-      <c r="C75" t="s">
-        <v>2167</v>
-      </c>
       <c r="D75" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="E75">
         <v>136</v>
@@ -10961,13 +10961,13 @@
         <v>464</v>
       </c>
       <c r="B78" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D78" t="s">
         <v>1982</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1985</v>
-      </c>
-      <c r="D78" t="s">
-        <v>1984</v>
       </c>
       <c r="E78">
         <v>39</v>
@@ -11099,16 +11099,16 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B81" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="C81" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="D81" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="E81">
         <v>40</v>
@@ -11619,13 +11619,13 @@
         <v>464</v>
       </c>
       <c r="B92" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="C92" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="D92" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="E92">
         <v>18</v>
@@ -11669,10 +11669,10 @@
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="D93" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="E93">
         <v>86</v>
@@ -11851,16 +11851,16 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B97" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="C97" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="D97" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="E97">
         <v>19</v>
@@ -12180,13 +12180,13 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B104" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="C104" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="D104" t="s">
         <v>27</v>
@@ -12227,10 +12227,10 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="B105" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -12274,10 +12274,10 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B106" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -12321,16 +12321,16 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B107" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="C107" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="D107" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="E107">
         <v>35</v>
@@ -12462,16 +12462,16 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="B110" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C110" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="D110" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="E110">
         <v>95</v>
@@ -12703,10 +12703,10 @@
         <v>467</v>
       </c>
       <c r="C115" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="D115" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="E115">
         <v>106</v>
@@ -12753,7 +12753,7 @@
         <v>446</v>
       </c>
       <c r="D116" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="E116">
         <v>15</v>
@@ -12979,13 +12979,13 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B121" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="C121" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="D121" t="s">
         <v>75</v>
@@ -13405,13 +13405,13 @@
         <v>464</v>
       </c>
       <c r="B130" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="C130" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="D130" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="E130">
         <v>18</v>
@@ -13496,16 +13496,16 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B132" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="C132" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="D132" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="E132">
         <v>11</v>
@@ -13828,7 +13828,7 @@
         <v>467</v>
       </c>
       <c r="B139" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="C139" t="s">
         <v>651</v>
@@ -13966,16 +13966,16 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="B142" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C142" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="D142" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="E142">
         <v>133</v>
@@ -14107,16 +14107,16 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B145" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C145" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="D145" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="E145">
         <v>16</v>
@@ -14251,13 +14251,13 @@
         <v>918</v>
       </c>
       <c r="B148" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="C148" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="D148" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="E148">
         <v>11</v>
@@ -14483,16 +14483,16 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B153" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C153" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="D153" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="E153">
         <v>115</v>
@@ -14530,16 +14530,16 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="B154" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D154" t="s">
         <v>1855</v>
-      </c>
-      <c r="C154" t="s">
-        <v>1858</v>
-      </c>
-      <c r="D154" t="s">
-        <v>1857</v>
       </c>
       <c r="E154">
         <v>21</v>
@@ -14765,16 +14765,16 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B159" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="C159" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="D159" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="E159">
         <v>6</v>
@@ -14821,7 +14821,7 @@
         <v>1435</v>
       </c>
       <c r="D160" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="E160">
         <v>18</v>
@@ -15376,16 +15376,16 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="B172" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C172" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="D172" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="E172">
         <v>129</v>
@@ -15705,16 +15705,16 @@
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B179" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="C179" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="D179" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="E179">
         <v>13</v>
@@ -15752,16 +15752,16 @@
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="B180" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="C180" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="D180" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="E180">
         <v>16</v>
@@ -15846,16 +15846,16 @@
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B182" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="C182" t="s">
         <v>1191</v>
       </c>
       <c r="D182" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="E182">
         <v>104</v>
@@ -15987,16 +15987,16 @@
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B185" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="C185" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="D185" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="E185">
         <v>111</v>
@@ -16222,16 +16222,16 @@
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B190" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C190" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="D190" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="E190">
         <v>26</v>
@@ -16275,10 +16275,10 @@
         <v>464</v>
       </c>
       <c r="C191" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="D191" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="E191">
         <v>106</v>
@@ -16413,13 +16413,13 @@
         <v>464</v>
       </c>
       <c r="B194" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C194" t="s">
         <v>1888</v>
       </c>
-      <c r="C194" t="s">
-        <v>1890</v>
-      </c>
       <c r="D194" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="E194">
         <v>19</v>
@@ -16460,13 +16460,13 @@
         <v>464</v>
       </c>
       <c r="B195" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="C195" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="D195" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="E195">
         <v>20</v>
@@ -16645,16 +16645,16 @@
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B199" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="C199" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="D199" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="E199">
         <v>12</v>
@@ -16836,7 +16836,7 @@
         <v>467</v>
       </c>
       <c r="B203" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="C203" t="s">
         <v>653</v>
@@ -16927,16 +16927,16 @@
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B205" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C205" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="D205" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="E205">
         <v>171</v>
@@ -17024,13 +17024,13 @@
         <v>756</v>
       </c>
       <c r="B207" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="C207" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="D207" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="E207">
         <v>21</v>
@@ -17215,7 +17215,7 @@
         <v>467</v>
       </c>
       <c r="C211" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="D211" t="s">
         <v>506</v>
@@ -17350,16 +17350,16 @@
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B214" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="C214" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="D214" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="E214">
         <v>14</v>
@@ -17444,16 +17444,16 @@
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B216" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="C216" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="D216" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="E216">
         <v>22</v>
@@ -17491,16 +17491,16 @@
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B217" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="C217" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="D217" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="E217">
         <v>23</v>
@@ -17638,10 +17638,10 @@
         <v>11</v>
       </c>
       <c r="C220" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D220" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="E220">
         <v>6</v>
@@ -17685,7 +17685,7 @@
         <v>10</v>
       </c>
       <c r="C221" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="D221" t="s">
         <v>1540</v>
@@ -17967,10 +17967,10 @@
         <v>756</v>
       </c>
       <c r="C227" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="D227" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="E227">
         <v>43</v>
@@ -18014,10 +18014,10 @@
         <v>756</v>
       </c>
       <c r="C228" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="D228" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="E228">
         <v>37</v>
@@ -18105,13 +18105,13 @@
         <v>464</v>
       </c>
       <c r="B230" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="C230" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="D230" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="E230">
         <v>27</v>
@@ -18343,10 +18343,10 @@
         <v>756</v>
       </c>
       <c r="C235" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="D235" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="E235">
         <v>24</v>
@@ -18481,7 +18481,7 @@
         <v>467</v>
       </c>
       <c r="B238" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="C238" t="s">
         <v>655</v>
@@ -18995,13 +18995,13 @@
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B249" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="C249" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="D249" t="s">
         <v>938</v>
@@ -19089,16 +19089,16 @@
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B251" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="C251" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="D251" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="E251">
         <v>17</v>
@@ -19418,16 +19418,16 @@
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B258" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C258" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="D258" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="E258">
         <v>31</v>
@@ -19747,16 +19747,16 @@
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B265" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="C265" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="D265" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="E265">
         <v>98</v>
@@ -19844,13 +19844,13 @@
         <v>844</v>
       </c>
       <c r="B267" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="C267" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="D267" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="E267">
         <v>26</v>
@@ -19938,13 +19938,13 @@
         <v>704</v>
       </c>
       <c r="B269" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="C269" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="D269" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="E269">
         <v>172</v>
@@ -20640,16 +20640,16 @@
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="B284" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
       </c>
       <c r="D284" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="E284">
         <v>95</v>
@@ -20687,16 +20687,16 @@
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B285" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="C285" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="D285" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="E285">
         <v>61</v>
@@ -20734,16 +20734,16 @@
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B286" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C286" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="D286" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="E286">
         <v>28</v>
@@ -21016,16 +21016,16 @@
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="B292" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C292" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="D292" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="E292">
         <v>98</v>
@@ -21257,10 +21257,10 @@
         <v>756</v>
       </c>
       <c r="C297" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="D297" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="E297">
         <v>24</v>
@@ -21298,16 +21298,16 @@
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B298" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="C298" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="D298" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="E298">
         <v>9</v>
@@ -21351,10 +21351,10 @@
         <v>465</v>
       </c>
       <c r="C299" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="D299" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="E299">
         <v>13</v>
@@ -21492,10 +21492,10 @@
         <v>782</v>
       </c>
       <c r="C302" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="D302" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="E302">
         <v>26</v>
@@ -21774,10 +21774,10 @@
         <v>756</v>
       </c>
       <c r="C308" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="D308" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="E308">
         <v>32</v>
@@ -22802,16 +22802,16 @@
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C330" t="s">
         <v>1835</v>
       </c>
-      <c r="B330" t="s">
-        <v>1835</v>
-      </c>
-      <c r="C330" t="s">
-        <v>1837</v>
-      </c>
       <c r="D330" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="E330">
         <v>50</v>
@@ -22990,13 +22990,13 @@
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B334" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="C334" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="D334" t="s">
         <v>516</v>
@@ -23131,16 +23131,16 @@
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B337" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="C337" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="D337" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="E337">
         <v>16</v>
@@ -23225,16 +23225,16 @@
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B339" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="C339" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="D339" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="E339">
         <v>23</v>
@@ -23319,16 +23319,16 @@
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B341" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="C341" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="D341" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="E341">
         <v>16</v>
@@ -23366,16 +23366,16 @@
     </row>
     <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B342" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="C342" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="D342" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="E342">
         <v>22</v>
@@ -23460,16 +23460,16 @@
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B344" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="C344" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="D344" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="E344">
         <v>45</v>
@@ -23604,13 +23604,13 @@
         <v>448</v>
       </c>
       <c r="B347" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C347" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D347" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E347">
         <v>23</v>
@@ -23792,13 +23792,13 @@
         <v>756</v>
       </c>
       <c r="B351" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="C351" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="D351" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="E351">
         <v>33</v>
@@ -23977,16 +23977,16 @@
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B355" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C355" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="D355" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="E355">
         <v>152</v>
@@ -24168,13 +24168,13 @@
         <v>464</v>
       </c>
       <c r="B359" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="C359" t="s">
         <v>1232</v>
       </c>
       <c r="D359" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="E359">
         <v>60</v>
@@ -24212,16 +24212,16 @@
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="B360" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C360" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="D360" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="E360">
         <v>97</v>
@@ -24309,13 +24309,13 @@
         <v>918</v>
       </c>
       <c r="B362" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="C362" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="D362" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="E362">
         <v>25</v>
@@ -24541,16 +24541,16 @@
     </row>
     <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B367" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="C367" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="D367" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="E367">
         <v>24</v>
@@ -24776,16 +24776,16 @@
     </row>
     <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B372" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="C372" t="s">
         <v>1191</v>
       </c>
       <c r="D372" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="E372">
         <v>72</v>
@@ -24826,13 +24826,13 @@
         <v>1657</v>
       </c>
       <c r="B373" t="s">
-        <v>1702</v>
+        <v>2303</v>
       </c>
       <c r="C373" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="D373" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="E373">
         <v>14</v>
@@ -25058,16 +25058,16 @@
     </row>
     <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B378" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="C378" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="D378" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="E378">
         <v>80</v>
@@ -25152,13 +25152,13 @@
     </row>
     <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B380" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C380" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="D380" t="s">
         <v>1130</v>
@@ -25622,16 +25622,16 @@
     </row>
     <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B390" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="C390" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="D390" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="E390">
         <v>63</v>
@@ -25857,16 +25857,16 @@
     </row>
     <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B395" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="C395" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="D395" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="E395">
         <v>16</v>
@@ -26048,13 +26048,13 @@
         <v>756</v>
       </c>
       <c r="B399" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="C399" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="D399" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="E399">
         <v>12</v>
@@ -26139,16 +26139,16 @@
     </row>
     <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B401" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="C401" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="D401" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="E401">
         <v>15</v>
@@ -26421,16 +26421,16 @@
     </row>
     <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B407" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="C407" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="D407" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="E407">
         <v>17</v>
@@ -26474,10 +26474,10 @@
         <v>465</v>
       </c>
       <c r="C408" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="D408" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="E408">
         <v>10</v>
@@ -26659,13 +26659,13 @@
         <v>464</v>
       </c>
       <c r="B412" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="C412" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="D412" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="E412">
         <v>20</v>
@@ -26703,16 +26703,16 @@
     </row>
     <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B413" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="C413" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="D413" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="E413">
         <v>15</v>
@@ -26944,10 +26944,10 @@
         <v>756</v>
       </c>
       <c r="C418" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="D418" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="E418">
         <v>23</v>
@@ -27035,13 +27035,13 @@
         <v>464</v>
       </c>
       <c r="B420" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="C420" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D420" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E420">
         <v>16</v>
@@ -27273,10 +27273,10 @@
         <v>756</v>
       </c>
       <c r="C425" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="D425" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="E425">
         <v>20</v>
@@ -27364,13 +27364,13 @@
         <v>844</v>
       </c>
       <c r="B427" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="C427" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="D427" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="E427">
         <v>17</v>
@@ -27784,13 +27784,13 @@
     </row>
     <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B436" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="C436" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="D436" t="s">
         <v>777</v>
@@ -27831,7 +27831,7 @@
     </row>
     <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B437" t="s">
         <v>778</v>
@@ -27972,16 +27972,16 @@
     </row>
     <row r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B440" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="C440" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="D440" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="E440">
         <v>11</v>
@@ -28066,16 +28066,16 @@
     </row>
     <row r="442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B442" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="C442" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="D442" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="E442">
         <v>15</v>
@@ -28395,16 +28395,16 @@
     </row>
     <row r="449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B449" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="C449" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="D449" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="E449">
         <v>9</v>
@@ -28492,13 +28492,13 @@
         <v>844</v>
       </c>
       <c r="B451" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="C451" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="D451" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="E451">
         <v>57</v>
@@ -28545,7 +28545,7 @@
         <v>464</v>
       </c>
       <c r="D452" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="E452">
         <v>117</v>
@@ -28777,10 +28777,10 @@
         <v>756</v>
       </c>
       <c r="C457" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="D457" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="E457">
         <v>31</v>
@@ -28818,16 +28818,16 @@
     </row>
     <row r="458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B458" t="s">
         <v>778</v>
       </c>
       <c r="C458" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="D458" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="E458">
         <v>21</v>
@@ -29291,13 +29291,13 @@
         <v>918</v>
       </c>
       <c r="B468" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="C468" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="D468" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="E468">
         <v>10</v>
@@ -29808,13 +29808,13 @@
         <v>918</v>
       </c>
       <c r="B479" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="C479" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="D479" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="E479">
         <v>18</v>
@@ -30093,10 +30093,10 @@
         <v>1174</v>
       </c>
       <c r="C485" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="D485" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="E485">
         <v>18</v>
@@ -30181,16 +30181,16 @@
     </row>
     <row r="487" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B487" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="C487" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="D487" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="E487">
         <v>23</v>
@@ -30325,7 +30325,7 @@
         <v>467</v>
       </c>
       <c r="B490" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="C490" t="s">
         <v>657</v>
@@ -30369,16 +30369,16 @@
     </row>
     <row r="491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B491" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="C491" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="D491" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="E491">
         <v>11</v>
@@ -31271,7 +31271,7 @@
         <v>734</v>
       </c>
       <c r="D510" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="E510">
         <v>117</v>
@@ -31309,16 +31309,16 @@
     </row>
     <row r="511" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B511" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="C511" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="D511" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="E511">
         <v>22</v>
@@ -31594,13 +31594,13 @@
         <v>464</v>
       </c>
       <c r="B517" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="C517" t="s">
         <v>1543</v>
       </c>
       <c r="D517" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="E517">
         <v>20</v>
@@ -31779,16 +31779,16 @@
     </row>
     <row r="521" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B521" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="C521" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="D521" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="E521">
         <v>12</v>
@@ -31920,16 +31920,16 @@
     </row>
     <row r="524" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B524" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C524" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D524" t="s">
         <v>2164</v>
-      </c>
-      <c r="B524" t="s">
-        <v>2165</v>
-      </c>
-      <c r="C524" t="s">
-        <v>2167</v>
-      </c>
-      <c r="D524" t="s">
-        <v>2166</v>
       </c>
       <c r="E524">
         <v>184</v>
@@ -32108,16 +32108,16 @@
     </row>
     <row r="528" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="B528" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C528" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="D528" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="E528">
         <v>113</v>
@@ -32531,16 +32531,16 @@
     </row>
     <row r="537" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B537" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="C537" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="D537" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="E537">
         <v>14</v>
@@ -32581,13 +32581,13 @@
         <v>918</v>
       </c>
       <c r="B538" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="C538" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="D538" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="E538">
         <v>23</v>
@@ -32625,16 +32625,16 @@
     </row>
     <row r="539" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B539" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="C539" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="D539" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="E539">
         <v>12</v>
@@ -32675,13 +32675,13 @@
         <v>918</v>
       </c>
       <c r="B540" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="C540" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="D540" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="E540">
         <v>15</v>
@@ -32719,16 +32719,16 @@
     </row>
     <row r="541" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B541" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="C541" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="D541" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="E541">
         <v>37</v>
@@ -32813,16 +32813,16 @@
     </row>
     <row r="543" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="B543" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="C543" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="D543" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="E543">
         <v>25</v>
@@ -32913,10 +32913,10 @@
         <v>10</v>
       </c>
       <c r="C545" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="D545" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="E545">
         <v>14</v>
@@ -33054,10 +33054,10 @@
         <v>511</v>
       </c>
       <c r="C548" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="D548" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="E548">
         <v>8</v>
@@ -33095,16 +33095,16 @@
     </row>
     <row r="549" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B549" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="C549" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="D549" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="E549">
         <v>21</v>
@@ -33189,16 +33189,16 @@
     </row>
     <row r="551" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="B551" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C551" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="D551" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="E551">
         <v>68</v>
@@ -33236,16 +33236,16 @@
     </row>
     <row r="552" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B552" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="C552" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="D552" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="E552">
         <v>34</v>
@@ -33330,16 +33330,16 @@
     </row>
     <row r="554" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B554" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="C554" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="D554" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="E554">
         <v>17</v>
@@ -33474,13 +33474,13 @@
         <v>464</v>
       </c>
       <c r="B557" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="C557" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="D557" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E557">
         <v>19</v>
@@ -33800,16 +33800,16 @@
     </row>
     <row r="564" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="B564" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C564" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="D564" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="E564">
         <v>100</v>
@@ -33894,16 +33894,16 @@
     </row>
     <row r="566" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C566" t="s">
         <v>1898</v>
       </c>
-      <c r="B566" t="s">
-        <v>1898</v>
-      </c>
-      <c r="C566" t="s">
-        <v>1900</v>
-      </c>
       <c r="D566" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="E566">
         <v>51</v>
@@ -34088,10 +34088,10 @@
         <v>1657</v>
       </c>
       <c r="C570" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="D570" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="E570">
         <v>82</v>
@@ -34176,16 +34176,16 @@
     </row>
     <row r="572" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B572" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="C572" t="s">
         <v>1232</v>
       </c>
       <c r="D572" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="E572">
         <v>39</v>
@@ -34270,10 +34270,10 @@
     </row>
     <row r="574" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B574" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C574" t="s">
         <v>526</v>
@@ -34599,16 +34599,16 @@
     </row>
     <row r="581" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B581" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="C581" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="D581" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="E581">
         <v>106</v>
@@ -34646,16 +34646,16 @@
     </row>
     <row r="582" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B582" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="C582" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="D582" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="E582">
         <v>12</v>
@@ -34793,10 +34793,10 @@
         <v>511</v>
       </c>
       <c r="C585" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="D585" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="E585">
         <v>8</v>
@@ -34834,16 +34834,16 @@
     </row>
     <row r="586" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B586" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="C586" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="D586" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="E586">
         <v>19</v>
@@ -34934,10 +34934,10 @@
         <v>889</v>
       </c>
       <c r="C588" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="D588" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="E588">
         <v>18</v>
@@ -35069,16 +35069,16 @@
     </row>
     <row r="591" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B591" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="C591" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="D591" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="E591">
         <v>36</v>
@@ -35686,10 +35686,10 @@
         <v>1612</v>
       </c>
       <c r="C604" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="D604" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="E604">
         <v>10</v>
@@ -35777,13 +35777,13 @@
         <v>464</v>
       </c>
       <c r="B606" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="C606" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="D606" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="E606">
         <v>28</v>
@@ -35871,13 +35871,13 @@
         <v>844</v>
       </c>
       <c r="B608" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="C608" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="D608" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E608">
         <v>15</v>
@@ -36150,16 +36150,16 @@
     </row>
     <row r="614" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B614" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="C614" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="D614" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="E614">
         <v>89</v>
@@ -36291,16 +36291,16 @@
     </row>
     <row r="617" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B617" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="C617" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="D617" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="E617">
         <v>12</v>
@@ -36432,16 +36432,16 @@
     </row>
     <row r="620" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B620" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="C620" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="D620" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="E620">
         <v>21</v>
@@ -36479,16 +36479,16 @@
     </row>
     <row r="621" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B621" t="s">
         <v>778</v>
       </c>
       <c r="C621" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="D621" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="E621">
         <v>14</v>
@@ -36670,7 +36670,7 @@
         <v>467</v>
       </c>
       <c r="B625" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="C625" t="s">
         <v>659</v>
@@ -37049,10 +37049,10 @@
         <v>275</v>
       </c>
       <c r="C633" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="D633" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E633">
         <v>25</v>
@@ -37234,7 +37234,7 @@
         <v>467</v>
       </c>
       <c r="B637" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="C637" t="s">
         <v>663</v>
@@ -37278,16 +37278,16 @@
     </row>
     <row r="638" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B638" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C638" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D638" t="s">
         <v>1732</v>
-      </c>
-      <c r="C638" t="s">
-        <v>1735</v>
-      </c>
-      <c r="D638" t="s">
-        <v>1734</v>
       </c>
       <c r="E638">
         <v>11</v>
@@ -37372,16 +37372,16 @@
     </row>
     <row r="640" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B640" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="C640" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="D640" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="E640">
         <v>71</v>
@@ -37472,10 +37472,10 @@
         <v>1313</v>
       </c>
       <c r="C642" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="D642" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="E642">
         <v>31</v>
@@ -37513,16 +37513,16 @@
     </row>
     <row r="643" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B643" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C643" t="s">
         <v>1755</v>
       </c>
-      <c r="C643" t="s">
-        <v>1757</v>
-      </c>
       <c r="D643" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="E643">
         <v>17</v>
@@ -37657,13 +37657,13 @@
         <v>918</v>
       </c>
       <c r="B646" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="C646" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="D646" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="E646">
         <v>14</v>
@@ -37983,16 +37983,16 @@
     </row>
     <row r="653" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B653" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="C653" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="D653" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="E653">
         <v>27</v>
@@ -38036,10 +38036,10 @@
         <v>464</v>
       </c>
       <c r="C654" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="D654" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="E654">
         <v>18</v>
@@ -38265,16 +38265,16 @@
     </row>
     <row r="659" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="B659" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C659" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="D659" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="E659">
         <v>79</v>
@@ -38694,10 +38694,10 @@
         <v>722</v>
       </c>
       <c r="C668" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="D668" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="E668">
         <v>57</v>
@@ -38876,16 +38876,16 @@
     </row>
     <row r="672" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="B672" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C672" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="D672" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="E672">
         <v>127</v>
@@ -38923,16 +38923,16 @@
     </row>
     <row r="673" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B673" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="C673" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="D673" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="E673">
         <v>24</v>
@@ -39120,7 +39120,7 @@
         <v>1181</v>
       </c>
       <c r="D677" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="E677">
         <v>35</v>
@@ -39164,10 +39164,10 @@
         <v>1612</v>
       </c>
       <c r="C678" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="D678" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="E678">
         <v>8</v>
@@ -39393,16 +39393,16 @@
     </row>
     <row r="683" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B683" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="C683" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="D683" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="E683">
         <v>20</v>
@@ -39440,16 +39440,16 @@
     </row>
     <row r="684" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B684" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C684" t="s">
         <v>286</v>
       </c>
       <c r="D684" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="E684">
         <v>19</v>
@@ -39722,16 +39722,16 @@
     </row>
     <row r="690" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B690" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C690" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="D690" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="E690">
         <v>53</v>
@@ -39816,16 +39816,16 @@
     </row>
     <row r="692" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B692" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="C692" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="D692" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="E692">
         <v>12</v>
@@ -39960,13 +39960,13 @@
         <v>464</v>
       </c>
       <c r="B695" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C695" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D695" t="s">
         <v>1993</v>
-      </c>
-      <c r="C695" t="s">
-        <v>1994</v>
-      </c>
-      <c r="D695" t="s">
-        <v>1995</v>
       </c>
       <c r="E695">
         <v>16</v>
@@ -40239,16 +40239,16 @@
     </row>
     <row r="701" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B701" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="C701" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="D701" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="E701">
         <v>22</v>
@@ -40286,16 +40286,16 @@
     </row>
     <row r="702" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B702" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="C702" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="D702" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="E702">
         <v>70</v>
@@ -40380,16 +40380,16 @@
     </row>
     <row r="704" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B704" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="C704" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="D704" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="E704">
         <v>26</v>
@@ -40668,10 +40668,10 @@
         <v>511</v>
       </c>
       <c r="C710" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="D710" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="E710">
         <v>10</v>
@@ -40715,10 +40715,10 @@
         <v>244</v>
       </c>
       <c r="C711" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="D711" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="E711">
         <v>34</v>
@@ -40853,13 +40853,13 @@
         <v>918</v>
       </c>
       <c r="B714" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="C714" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="D714" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="E714">
         <v>17</v>
@@ -40947,13 +40947,13 @@
         <v>1657</v>
       </c>
       <c r="B716" t="s">
-        <v>1702</v>
+        <v>2303</v>
       </c>
       <c r="C716" t="s">
-        <v>1702</v>
+        <v>2303</v>
       </c>
       <c r="D716" t="s">
-        <v>1701</v>
+        <v>2304</v>
       </c>
       <c r="E716">
         <v>95</v>
@@ -40991,16 +40991,16 @@
     </row>
     <row r="717" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B717" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C717" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D717" t="s">
         <v>2136</v>
-      </c>
-      <c r="C717" t="s">
-        <v>2139</v>
-      </c>
-      <c r="D717" t="s">
-        <v>2138</v>
       </c>
       <c r="E717">
         <v>17</v>
@@ -41044,10 +41044,10 @@
         <v>1466</v>
       </c>
       <c r="C718" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="D718" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="E718">
         <v>18</v>
@@ -41088,13 +41088,13 @@
         <v>448</v>
       </c>
       <c r="B719" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C719" t="s">
         <v>2006</v>
       </c>
-      <c r="C719" t="s">
-        <v>2008</v>
-      </c>
       <c r="D719" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E719">
         <v>24</v>
@@ -41185,10 +41185,10 @@
         <v>511</v>
       </c>
       <c r="C721" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="D721" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="E721">
         <v>9</v>
@@ -41273,16 +41273,16 @@
     </row>
     <row r="723" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B723" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C723" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="D723" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="E723">
         <v>14</v>
@@ -41414,16 +41414,16 @@
     </row>
     <row r="726" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B726" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="C726" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="D726" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="E726">
         <v>44</v>
@@ -41558,7 +41558,7 @@
         <v>467</v>
       </c>
       <c r="B729" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="C729" t="s">
         <v>665</v>
@@ -41608,10 +41608,10 @@
         <v>275</v>
       </c>
       <c r="C730" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="D730" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="E730">
         <v>29</v>
@@ -41655,10 +41655,10 @@
         <v>275</v>
       </c>
       <c r="C731" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="D731" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="E731">
         <v>20</v>
@@ -41749,10 +41749,10 @@
         <v>1366</v>
       </c>
       <c r="C733" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="D733" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="E733">
         <v>15</v>
@@ -41843,10 +41843,10 @@
         <v>889</v>
       </c>
       <c r="C735" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="D735" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="E735">
         <v>9</v>
@@ -41884,16 +41884,16 @@
     </row>
     <row r="736" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B736" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="C736" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="D736" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="E736">
         <v>14</v>
@@ -41934,13 +41934,13 @@
         <v>918</v>
       </c>
       <c r="B737" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="C737" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="D737" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="E737">
         <v>21</v>
@@ -42031,10 +42031,10 @@
         <v>1177</v>
       </c>
       <c r="C739" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="D739" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="E739">
         <v>15</v>
@@ -42260,16 +42260,16 @@
     </row>
     <row r="744" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B744" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="C744" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="D744" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="E744">
         <v>41</v>
@@ -42401,16 +42401,16 @@
     </row>
     <row r="747" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B747" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="C747" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="D747" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="E747">
         <v>14</v>
@@ -42448,16 +42448,16 @@
     </row>
     <row r="748" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="B748" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C748" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="D748" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="E748">
         <v>74</v>
@@ -42736,10 +42736,10 @@
         <v>889</v>
       </c>
       <c r="C754" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="D754" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="E754">
         <v>15</v>
@@ -42880,7 +42880,7 @@
         <v>757</v>
       </c>
       <c r="D757" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="E757">
         <v>41</v>
@@ -43012,16 +43012,16 @@
     </row>
     <row r="760" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B760" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C760" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="D760" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="E760">
         <v>20</v>
@@ -43059,16 +43059,16 @@
     </row>
     <row r="761" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B761" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="C761" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="D761" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="E761">
         <v>19</v>
@@ -43250,7 +43250,7 @@
         <v>467</v>
       </c>
       <c r="B765" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="C765" t="s">
         <v>668</v>
@@ -43435,13 +43435,13 @@
     </row>
     <row r="769" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B769" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="C769" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="D769" t="s">
         <v>1617</v>
@@ -43529,16 +43529,16 @@
     </row>
     <row r="771" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B771" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="C771" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="D771" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="E771">
         <v>11</v>
@@ -43623,13 +43623,13 @@
     </row>
     <row r="773" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="B773" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C773" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="D773" t="s">
         <v>1672</v>
@@ -43717,16 +43717,16 @@
     </row>
     <row r="775" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B775" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="C775" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="D775" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="E775">
         <v>17</v>
@@ -43764,16 +43764,16 @@
     </row>
     <row r="776" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B776" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="C776" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="D776" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="E776">
         <v>15</v>
@@ -43814,13 +43814,13 @@
         <v>448</v>
       </c>
       <c r="B777" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C777" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="D777" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="E777">
         <v>42</v>
@@ -43905,16 +43905,16 @@
     </row>
     <row r="779" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B779" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="C779" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="D779" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="E779">
         <v>17</v>
@@ -43952,16 +43952,16 @@
     </row>
     <row r="780" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B780" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="C780" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="D780" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="E780">
         <v>90</v>
@@ -44143,13 +44143,13 @@
         <v>918</v>
       </c>
       <c r="B784" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="C784" t="s">
+        <v>2107</v>
+      </c>
+      <c r="D784" t="s">
         <v>2109</v>
-      </c>
-      <c r="D784" t="s">
-        <v>2111</v>
       </c>
       <c r="E784">
         <v>15</v>
@@ -44190,13 +44190,13 @@
         <v>844</v>
       </c>
       <c r="B785" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="C785" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="D785" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="E785">
         <v>20</v>
@@ -44237,13 +44237,13 @@
         <v>464</v>
       </c>
       <c r="B786" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="C786" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="D786" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="E786">
         <v>16</v>
@@ -44331,13 +44331,13 @@
         <v>1657</v>
       </c>
       <c r="B788" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="C788" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D788" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="E788">
         <v>37</v>
@@ -44375,16 +44375,16 @@
     </row>
     <row r="789" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B789" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="C789" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="D789" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="E789">
         <v>12</v>
@@ -44422,16 +44422,16 @@
     </row>
     <row r="790" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B790" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="C790" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="D790" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="E790">
         <v>28</v>
@@ -44469,16 +44469,16 @@
     </row>
     <row r="791" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B791" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="C791" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="D791" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="E791">
         <v>9</v>
@@ -44610,16 +44610,16 @@
     </row>
     <row r="794" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B794" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C794" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="D794" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="E794">
         <v>16</v>
@@ -44798,16 +44798,16 @@
     </row>
     <row r="798" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B798" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="C798" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="D798" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="E798">
         <v>15</v>
@@ -44995,7 +44995,7 @@
         <v>1504</v>
       </c>
       <c r="D802" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="E802">
         <v>37</v>
@@ -45130,13 +45130,13 @@
         <v>464</v>
       </c>
       <c r="B805" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="C805" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="D805" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="E805">
         <v>43</v>
@@ -45174,16 +45174,16 @@
     </row>
     <row r="806" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="B806" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="C806" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="D806" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="E806">
         <v>16</v>
@@ -45268,16 +45268,16 @@
     </row>
     <row r="808" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B808" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="C808" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="D808" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="E808">
         <v>23</v>
@@ -45318,13 +45318,13 @@
         <v>464</v>
       </c>
       <c r="B809" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="C809" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="D809" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="E809">
         <v>15</v>
@@ -45644,16 +45644,16 @@
     </row>
     <row r="816" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B816" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C816" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="D816" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="E816">
         <v>28</v>
@@ -45741,13 +45741,13 @@
         <v>756</v>
       </c>
       <c r="B818" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="C818" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="D818" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="E818">
         <v>16</v>
@@ -46070,13 +46070,13 @@
         <v>918</v>
       </c>
       <c r="B825" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="C825" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D825" t="s">
         <v>2096</v>
-      </c>
-      <c r="D825" t="s">
-        <v>2098</v>
       </c>
       <c r="E825">
         <v>15</v>
@@ -46167,10 +46167,10 @@
         <v>782</v>
       </c>
       <c r="C827" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="D827" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="E827">
         <v>27</v>
@@ -46349,16 +46349,16 @@
     </row>
     <row r="831" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B831" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="C831" t="s">
         <v>1660</v>
       </c>
       <c r="D831" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="E831">
         <v>8</v>
@@ -46493,13 +46493,13 @@
         <v>918</v>
       </c>
       <c r="B834" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="C834" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="D834" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="E834">
         <v>43</v>
@@ -46584,16 +46584,16 @@
     </row>
     <row r="836" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B836" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C836" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="D836" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="E836">
         <v>25</v>
@@ -46684,7 +46684,7 @@
         <v>997</v>
       </c>
       <c r="C838" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="D838" t="s">
         <v>1002</v>
@@ -46819,16 +46819,16 @@
     </row>
     <row r="841" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B841" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C841" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="D841" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="E841">
         <v>50</v>
@@ -47101,16 +47101,16 @@
     </row>
     <row r="847" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B847" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="C847" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="D847" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="E847">
         <v>154</v>
@@ -47289,16 +47289,16 @@
     </row>
     <row r="851" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="B851" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C851" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="D851" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="E851">
         <v>81</v>
@@ -47665,16 +47665,16 @@
     </row>
     <row r="859" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B859" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C859" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="D859" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="E859">
         <v>53</v>
@@ -47900,16 +47900,16 @@
     </row>
     <row r="864" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B864" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C864" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="D864" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="E864">
         <v>24</v>
@@ -47994,16 +47994,16 @@
     </row>
     <row r="866" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B866" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="C866" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="D866" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="E866">
         <v>16</v>
@@ -48041,16 +48041,16 @@
     </row>
     <row r="867" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B867" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C867" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="D867" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="E867">
         <v>20</v>
@@ -48373,10 +48373,10 @@
         <v>918</v>
       </c>
       <c r="B874" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="C874" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="D874" t="s">
         <v>954</v>
@@ -48514,7 +48514,7 @@
         <v>467</v>
       </c>
       <c r="B877" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="C877" t="s">
         <v>665</v>
@@ -48558,16 +48558,16 @@
     </row>
     <row r="878" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B878" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="C878" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="D878" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="E878">
         <v>15</v>
@@ -48746,16 +48746,16 @@
     </row>
     <row r="882" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B882" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C882" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="D882" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="E882">
         <v>24</v>
@@ -48893,10 +48893,10 @@
         <v>275</v>
       </c>
       <c r="C885" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="D885" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="E885">
         <v>42</v>
@@ -48934,16 +48934,16 @@
     </row>
     <row r="886" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="B886" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="C886" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="D886" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="E886">
         <v>28</v>
@@ -48981,16 +48981,16 @@
     </row>
     <row r="887" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B887" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="C887" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="D887" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="E887">
         <v>21</v>
@@ -49078,13 +49078,13 @@
         <v>464</v>
       </c>
       <c r="B889" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="C889" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="D889" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="E889">
         <v>22</v>
@@ -49501,13 +49501,13 @@
         <v>918</v>
       </c>
       <c r="B898" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="C898" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="D898" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="E898">
         <v>15</v>
@@ -49554,7 +49554,7 @@
         <v>1412</v>
       </c>
       <c r="D899" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="E899">
         <v>12</v>
@@ -49686,13 +49686,13 @@
     </row>
     <row r="902" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B902" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="C902" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="D902" t="s">
         <v>1650</v>
@@ -49877,13 +49877,13 @@
         <v>918</v>
       </c>
       <c r="B906" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C906" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D906" t="s">
         <v>2093</v>
-      </c>
-      <c r="C906" t="s">
-        <v>2096</v>
-      </c>
-      <c r="D906" t="s">
-        <v>2095</v>
       </c>
       <c r="E906">
         <v>29</v>
@@ -49971,7 +49971,7 @@
         <v>467</v>
       </c>
       <c r="B908" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="C908" t="s">
         <v>670</v>
@@ -50438,16 +50438,16 @@
     </row>
     <row r="918" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="B918" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C918" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="D918" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="E918">
         <v>76</v>
@@ -50491,10 +50491,10 @@
         <v>464</v>
       </c>
       <c r="C919" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="D919" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="E919">
         <v>28</v>
@@ -50532,16 +50532,16 @@
     </row>
     <row r="920" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B920" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="C920" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="D920" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="E920">
         <v>12</v>
@@ -50673,16 +50673,16 @@
     </row>
     <row r="923" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B923" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C923" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="D923" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="E923">
         <v>36</v>
@@ -50955,16 +50955,16 @@
     </row>
     <row r="929" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B929" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C929" t="s">
         <v>1935</v>
       </c>
-      <c r="C929" t="s">
-        <v>1937</v>
-      </c>
       <c r="D929" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="E929">
         <v>33</v>
@@ -51146,13 +51146,13 @@
         <v>464</v>
       </c>
       <c r="B933" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="C933" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="D933" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="E933">
         <v>11</v>
@@ -51284,16 +51284,16 @@
     </row>
     <row r="936" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="B936" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="C936" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="D936" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="E936">
         <v>28</v>
@@ -51334,13 +51334,13 @@
         <v>1657</v>
       </c>
       <c r="B937" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C937" t="s">
         <v>1702</v>
       </c>
-      <c r="C937" t="s">
-        <v>1704</v>
-      </c>
       <c r="D937" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="E937">
         <v>47</v>
@@ -51660,16 +51660,16 @@
     </row>
     <row r="944" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B944" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="C944" t="s">
         <v>1660</v>
       </c>
       <c r="D944" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="E944">
         <v>17</v>
@@ -51754,16 +51754,16 @@
     </row>
     <row r="946" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B946" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="C946" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="D946" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="E946">
         <v>11</v>
@@ -51801,16 +51801,16 @@
     </row>
     <row r="947" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B947" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="C947" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="D947" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="E947">
         <v>22</v>
@@ -51942,16 +51942,16 @@
     </row>
     <row r="950" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B950" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C950" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="D950" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="E950">
         <v>24</v>
@@ -52321,13 +52321,13 @@
         <v>448</v>
       </c>
       <c r="B958" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C958" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D958" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="E958">
         <v>20</v>
@@ -52603,7 +52603,7 @@
         <v>467</v>
       </c>
       <c r="B964" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="C964" t="s">
         <v>671</v>
@@ -52694,16 +52694,16 @@
     </row>
     <row r="966" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B966" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="C966" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="D966" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="E966">
         <v>12</v>
@@ -52797,7 +52797,7 @@
         <v>536</v>
       </c>
       <c r="D968" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="E968">
         <v>72</v>
@@ -53264,10 +53264,10 @@
         <v>756</v>
       </c>
       <c r="C978" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="D978" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="E978">
         <v>21</v>
@@ -53449,13 +53449,13 @@
         <v>844</v>
       </c>
       <c r="B982" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="C982" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="D982" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="E982">
         <v>29</v>
@@ -53869,13 +53869,13 @@
     </row>
     <row r="991" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C991" t="s">
         <v>1835</v>
-      </c>
-      <c r="B991" t="s">
-        <v>1835</v>
-      </c>
-      <c r="C991" t="s">
-        <v>1837</v>
       </c>
       <c r="D991" t="s">
         <v>580</v>
@@ -53922,7 +53922,7 @@
         <v>1466</v>
       </c>
       <c r="C992" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="D992" t="s">
         <v>1481</v>
@@ -53963,13 +53963,13 @@
     </row>
     <row r="993" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="B993" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="C993" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="D993" t="s">
         <v>1481</v>
@@ -54010,13 +54010,13 @@
     </row>
     <row r="994" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B994" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="C994" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="D994" t="s">
         <v>1481</v>
@@ -54104,10 +54104,10 @@
     </row>
     <row r="996" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B996" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="C996" t="s">
         <v>930</v>
@@ -54198,16 +54198,16 @@
     </row>
     <row r="998" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B998" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="C998" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="D998" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="E998">
         <v>9</v>
@@ -54433,13 +54433,13 @@
     </row>
     <row r="1003" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="B1003" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="C1003" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="D1003" t="s">
         <v>135</v>
@@ -54480,10 +54480,10 @@
     </row>
     <row r="1004" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B1004" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="C1004" t="s">
         <v>136</v>
@@ -54715,16 +54715,16 @@
     </row>
     <row r="1009" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B1009" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="C1009" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="D1009" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="E1009">
         <v>15</v>
@@ -54809,16 +54809,16 @@
     </row>
     <row r="1011" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="B1011" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="C1011" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="D1011" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="E1011">
         <v>24</v>
@@ -54862,10 +54862,10 @@
         <v>1612</v>
       </c>
       <c r="C1012" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="D1012" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="E1012">
         <v>6</v>
@@ -55047,7 +55047,7 @@
         <v>280</v>
       </c>
       <c r="B1016" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="C1016" t="s">
         <v>284</v>
@@ -55138,16 +55138,16 @@
     </row>
     <row r="1018" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B1018" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="C1018" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="D1018" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="E1018">
         <v>18</v>
@@ -55235,13 +55235,13 @@
         <v>467</v>
       </c>
       <c r="B1020" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="C1020" t="s">
         <v>545</v>
       </c>
       <c r="D1020" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="E1020">
         <v>34</v>
@@ -55467,16 +55467,16 @@
     </row>
     <row r="1025" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B1025" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="C1025" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="D1025" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="E1025">
         <v>78</v>
@@ -55567,10 +55567,10 @@
         <v>722</v>
       </c>
       <c r="C1027" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="D1027" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="E1027">
         <v>57</v>
@@ -55655,13 +55655,13 @@
     </row>
     <row r="1029" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B1029" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="C1029" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="D1029" t="s">
         <v>502</v>
@@ -55940,13 +55940,13 @@
         <v>464</v>
       </c>
       <c r="B1035" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="C1035" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="D1035" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="E1035">
         <v>17</v>
@@ -55984,16 +55984,16 @@
     </row>
     <row r="1036" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B1036" t="s">
         <v>778</v>
       </c>
       <c r="C1036" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="D1036" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="E1036">
         <v>15</v>
@@ -56034,13 +56034,13 @@
         <v>844</v>
       </c>
       <c r="B1037" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="C1037" t="s">
         <v>511</v>
       </c>
       <c r="D1037" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="E1037">
         <v>24</v>
@@ -56366,10 +56366,10 @@
         <v>464</v>
       </c>
       <c r="C1044" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="D1044" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="E1044">
         <v>20</v>
@@ -56504,13 +56504,13 @@
         <v>464</v>
       </c>
       <c r="B1047" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="C1047" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="D1047" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="E1047">
         <v>24</v>
@@ -56692,10 +56692,10 @@
         <v>467</v>
       </c>
       <c r="B1051" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="C1051" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="D1051" t="s">
         <v>647</v>
@@ -56927,13 +56927,13 @@
         <v>756</v>
       </c>
       <c r="B1056" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D1056" t="s">
         <v>1825</v>
-      </c>
-      <c r="C1056" t="s">
-        <v>1828</v>
-      </c>
-      <c r="D1056" t="s">
-        <v>1827</v>
       </c>
       <c r="E1056">
         <v>20</v>
@@ -57168,7 +57168,7 @@
         <v>11</v>
       </c>
       <c r="D1061" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="E1061">
         <v>35</v>
@@ -57679,13 +57679,13 @@
         <v>918</v>
       </c>
       <c r="B1072" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="C1072" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="D1072" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="E1072">
         <v>15</v>
@@ -57723,16 +57723,16 @@
     </row>
     <row r="1073" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B1073" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="C1073" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="D1073" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="E1073">
         <v>14</v>
@@ -58149,7 +58149,7 @@
         <v>844</v>
       </c>
       <c r="B1082" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="C1082" t="s">
         <v>30</v>
@@ -58193,10 +58193,10 @@
     </row>
     <row r="1083" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B1083" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C1083" t="s">
         <v>30</v>
@@ -58337,13 +58337,13 @@
         <v>918</v>
       </c>
       <c r="B1086" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="C1086" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="D1086" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="E1086">
         <v>19</v>
@@ -58616,16 +58616,16 @@
     </row>
     <row r="1092" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1092" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B1092" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="C1092" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="D1092" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="E1092">
         <v>31</v>
@@ -58898,16 +58898,16 @@
     </row>
     <row r="1098" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B1098" t="s">
         <v>778</v>
       </c>
       <c r="C1098" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D1098" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="E1098">
         <v>11</v>
@@ -58992,16 +58992,16 @@
     </row>
     <row r="1100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B1100" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="C1100" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="D1100" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="E1100">
         <v>11</v>
@@ -59133,16 +59133,16 @@
     </row>
     <row r="1103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="B1103" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C1103" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="D1103" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="E1103">
         <v>86</v>
@@ -59189,7 +59189,7 @@
         <v>722</v>
       </c>
       <c r="D1104" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="E1104">
         <v>121</v>
@@ -59415,16 +59415,16 @@
     </row>
     <row r="1109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B1109" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="C1109" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="D1109" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="E1109">
         <v>98</v>
@@ -59515,10 +59515,10 @@
         <v>775</v>
       </c>
       <c r="C1111" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="D1111" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="E1111">
         <v>7</v>
@@ -59791,16 +59791,16 @@
     </row>
     <row r="1117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1117" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B1117" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="C1117" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="D1117" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="E1117">
         <v>16</v>
@@ -60358,13 +60358,13 @@
         <v>844</v>
       </c>
       <c r="B1129" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="C1129" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="D1129" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="E1129">
         <v>18</v>
@@ -60543,16 +60543,16 @@
     </row>
     <row r="1133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1133" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B1133" t="s">
         <v>778</v>
       </c>
       <c r="C1133" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="D1133" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="E1133">
         <v>15</v>
@@ -60590,16 +60590,16 @@
     </row>
     <row r="1134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1134" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B1134" t="s">
         <v>778</v>
       </c>
       <c r="C1134" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="D1134" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="E1134">
         <v>14</v>
@@ -60831,10 +60831,10 @@
         <v>705</v>
       </c>
       <c r="C1139" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="D1139" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="E1139">
         <v>30</v>
@@ -60966,16 +60966,16 @@
     </row>
     <row r="1142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1142" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B1142" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="C1142" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="D1142" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="E1142">
         <v>108</v>
@@ -61207,10 +61207,10 @@
         <v>782</v>
       </c>
       <c r="C1147" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="D1147" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="E1147">
         <v>29</v>
@@ -61342,16 +61342,16 @@
     </row>
     <row r="1150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1150" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B1150" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C1150" t="s">
         <v>2041</v>
       </c>
-      <c r="C1150" t="s">
-        <v>2043</v>
-      </c>
       <c r="D1150" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="E1150">
         <v>24</v>
@@ -61483,16 +61483,16 @@
     </row>
     <row r="1153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1153" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="B1153" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="C1153" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="D1153" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="E1153">
         <v>64</v>
@@ -61624,16 +61624,16 @@
     </row>
     <row r="1156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1156" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B1156" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="C1156" t="s">
         <v>1191</v>
       </c>
       <c r="D1156" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="E1156">
         <v>86</v>
@@ -61724,10 +61724,10 @@
         <v>775</v>
       </c>
       <c r="C1158" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="D1158" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="E1158">
         <v>6</v>
@@ -61906,16 +61906,16 @@
     </row>
     <row r="1162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1162" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B1162" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="C1162" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="D1162" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="E1162">
         <v>16</v>
@@ -61953,16 +61953,16 @@
     </row>
     <row r="1163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1163" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B1163" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="C1163" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="D1163" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="E1163">
         <v>93</v>
@@ -62000,16 +62000,16 @@
     </row>
     <row r="1164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1164" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B1164" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="C1164" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="D1164" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="E1164">
         <v>50</v>
@@ -62047,16 +62047,16 @@
     </row>
     <row r="1165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1165" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B1165" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C1165" t="s">
         <v>1767</v>
       </c>
-      <c r="C1165" t="s">
-        <v>1769</v>
-      </c>
       <c r="D1165" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="E1165">
         <v>50</v>
@@ -62141,16 +62141,16 @@
     </row>
     <row r="1167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1167" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B1167" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="C1167" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="D1167" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="E1167">
         <v>17</v>
@@ -62238,13 +62238,13 @@
         <v>844</v>
       </c>
       <c r="B1169" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="C1169" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="D1169" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="E1169">
         <v>23</v>
@@ -62376,16 +62376,16 @@
     </row>
     <row r="1172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1172" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B1172" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="C1172" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="D1172" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="E1172">
         <v>24</v>
@@ -62423,16 +62423,16 @@
     </row>
     <row r="1173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1173" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B1173" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="C1173" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="D1173" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="E1173">
         <v>14</v>
@@ -62564,16 +62564,16 @@
     </row>
     <row r="1176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1176" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B1176" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="C1176" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="D1176" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="E1176">
         <v>63</v>
@@ -62752,16 +62752,16 @@
     </row>
     <row r="1180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1180" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B1180" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="C1180" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="D1180" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="E1180">
         <v>14</v>
@@ -63043,7 +63043,7 @@
         <v>760</v>
       </c>
       <c r="D1186" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="E1186">
         <v>103</v>
@@ -63322,10 +63322,10 @@
         <v>756</v>
       </c>
       <c r="C1192" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="D1192" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="E1192">
         <v>28</v>
@@ -63460,13 +63460,13 @@
         <v>464</v>
       </c>
       <c r="B1195" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="C1195" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="D1195" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1195">
         <v>85</v>
@@ -63551,16 +63551,16 @@
     </row>
     <row r="1197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1197" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B1197" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="C1197" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="D1197" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="E1197">
         <v>14</v>
@@ -63604,10 +63604,10 @@
         <v>782</v>
       </c>
       <c r="C1198" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="D1198" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="E1198">
         <v>20</v>
@@ -63701,7 +63701,7 @@
         <v>275</v>
       </c>
       <c r="D1200" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E1200">
         <v>121</v>
@@ -63745,10 +63745,10 @@
         <v>1612</v>
       </c>
       <c r="C1201" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="D1201" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="E1201">
         <v>9</v>
@@ -63786,16 +63786,16 @@
     </row>
     <row r="1202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1202" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B1202" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="C1202" t="s">
         <v>286</v>
       </c>
       <c r="D1202" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="E1202">
         <v>15</v>
@@ -64068,16 +64068,16 @@
     </row>
     <row r="1208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1208" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B1208" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="C1208" t="s">
         <v>985</v>
       </c>
       <c r="D1208" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="E1208">
         <v>11</v>
@@ -64168,10 +64168,10 @@
         <v>465</v>
       </c>
       <c r="C1210" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="D1210" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="E1210">
         <v>11</v>
@@ -64303,16 +64303,16 @@
     </row>
     <row r="1213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1213" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B1213" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="C1213" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="D1213" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="E1213">
         <v>26</v>
@@ -64353,13 +64353,13 @@
         <v>464</v>
       </c>
       <c r="B1214" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="C1214" t="s">
         <v>165</v>
       </c>
       <c r="D1214" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E1214">
         <v>19</v>
@@ -64397,16 +64397,16 @@
     </row>
     <row r="1215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1215" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B1215" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C1215" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="D1215" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="E1215">
         <v>51</v>
@@ -64594,7 +64594,7 @@
         <v>276</v>
       </c>
       <c r="D1219" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="E1219">
         <v>41</v>
@@ -64876,7 +64876,7 @@
         <v>23</v>
       </c>
       <c r="D1225" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="E1225">
         <v>7</v>
@@ -65196,16 +65196,16 @@
     </row>
     <row r="1232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1232" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B1232" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="C1232" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="D1232" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="E1232">
         <v>13</v>
@@ -65290,16 +65290,16 @@
     </row>
     <row r="1234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1234" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B1234" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C1234" t="s">
         <v>1787</v>
       </c>
-      <c r="C1234" t="s">
-        <v>1789</v>
-      </c>
       <c r="D1234" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="E1234">
         <v>33</v>
@@ -65478,16 +65478,16 @@
     </row>
     <row r="1238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1238" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B1238" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="C1238" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="D1238" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="E1238">
         <v>7</v>
@@ -65572,16 +65572,16 @@
     </row>
     <row r="1240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1240" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B1240" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="C1240" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="D1240" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="E1240">
         <v>119</v>
@@ -65669,13 +65669,13 @@
         <v>464</v>
       </c>
       <c r="B1242" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="C1242" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="D1242" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="E1242">
         <v>19</v>
@@ -65713,16 +65713,16 @@
     </row>
     <row r="1243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1243" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="B1243" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C1243" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="D1243" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="E1243">
         <v>212</v>
@@ -65760,16 +65760,16 @@
     </row>
     <row r="1244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1244" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B1244" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="C1244" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="D1244" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="E1244">
         <v>29</v>
@@ -65807,16 +65807,16 @@
     </row>
     <row r="1245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1245" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B1245" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="C1245" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="D1245" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="E1245">
         <v>16</v>
@@ -65995,16 +65995,16 @@
     </row>
     <row r="1249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1249" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B1249" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="C1249" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="D1249" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="E1249">
         <v>19</v>
@@ -66230,16 +66230,16 @@
     </row>
     <row r="1254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1254" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B1254" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="C1254" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="D1254" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="E1254">
         <v>50</v>
@@ -66465,16 +66465,16 @@
     </row>
     <row r="1259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1259" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="B1259" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C1259" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="D1259" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="E1259">
         <v>99</v>
@@ -66891,13 +66891,13 @@
         <v>1657</v>
       </c>
       <c r="B1268" t="s">
-        <v>1702</v>
+        <v>2303</v>
       </c>
       <c r="C1268" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="D1268" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E1268">
         <v>39</v>
@@ -67032,13 +67032,13 @@
         <v>448</v>
       </c>
       <c r="B1271" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C1271" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D1271" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="E1271">
         <v>28</v>
@@ -67170,16 +67170,16 @@
     </row>
     <row r="1274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1274" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B1274" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="C1274" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="D1274" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="E1274">
         <v>14</v>
@@ -67217,16 +67217,16 @@
     </row>
     <row r="1275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1275" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D1275" t="s">
         <v>1715</v>
-      </c>
-      <c r="B1275" t="s">
-        <v>1718</v>
-      </c>
-      <c r="C1275" t="s">
-        <v>1719</v>
-      </c>
-      <c r="D1275" t="s">
-        <v>1717</v>
       </c>
       <c r="E1275">
         <v>13</v>
@@ -67270,10 +67270,10 @@
         <v>756</v>
       </c>
       <c r="C1276" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="D1276" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="E1276">
         <v>41</v>
@@ -67317,10 +67317,10 @@
         <v>756</v>
       </c>
       <c r="C1277" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="D1277" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="E1277">
         <v>25</v>
@@ -67408,13 +67408,13 @@
         <v>464</v>
       </c>
       <c r="B1279" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="C1279" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="D1279" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="E1279">
         <v>15</v>
@@ -67781,16 +67781,16 @@
     </row>
     <row r="1287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1287" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B1287" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="C1287" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="D1287" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="E1287">
         <v>14</v>
@@ -68022,10 +68022,10 @@
         <v>725</v>
       </c>
       <c r="C1292" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="D1292" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="E1292">
         <v>85</v>
@@ -68633,10 +68633,10 @@
         <v>465</v>
       </c>
       <c r="C1305" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="D1305" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="E1305">
         <v>11</v>
@@ -68721,16 +68721,16 @@
     </row>
     <row r="1307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1307" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B1307" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C1307" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="D1307" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="E1307">
         <v>18</v>
@@ -68862,16 +68862,16 @@
     </row>
     <row r="1310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1310" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="B1310" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="C1310" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="D1310" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="E1310">
         <v>71</v>
@@ -69003,16 +69003,16 @@
     </row>
     <row r="1313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1313" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="B1313" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="C1313" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="D1313" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="E1313">
         <v>42</v>
@@ -69053,13 +69053,13 @@
         <v>467</v>
       </c>
       <c r="B1314" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="C1314" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="D1314" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="E1314">
         <v>15</v>
